--- a/thoipapy/setting/hydrophobicity_scales.xlsx
+++ b/thoipapy/setting/hydrophobicity_scales.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_modules\thoipapy\thoipapy\setting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="16635" windowHeight="10545"/>
+    <workbookView xWindow="3030" yWindow="120" windowWidth="16635" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Ile</t>
   </si>
@@ -187,12 +192,27 @@
   </si>
   <si>
     <t>Engelman(GES)</t>
+  </si>
+  <si>
+    <t>Pilpel Y, Ben-Tal N, &amp; Lancet D (1999) KPROT: A knowledge-based scale for the propensity of residue orientation in transmembrane segments. Application to membrane protein structure prediction11Edited by G. von Heijne. J. Mol. Biol. 294(4):921-935.</t>
+  </si>
+  <si>
+    <t>kPROT_Extracellular</t>
+  </si>
+  <si>
+    <t>kPROT_Central</t>
+  </si>
+  <si>
+    <t>kPROT_Intracellular</t>
+  </si>
+  <si>
+    <t>kPROT_Both termini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,6 +275,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -302,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,12 +582,12 @@
     <col min="12" max="12" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>21</v>
       </c>
@@ -577,8 +600,20 @@
       <c r="F2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -615,8 +650,20 @@
       <c r="L3" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -653,8 +700,20 @@
       <c r="L4" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0.03</v>
+      </c>
+      <c r="N4">
+        <v>0.09</v>
+      </c>
+      <c r="O4">
+        <v>0.18</v>
+      </c>
+      <c r="P4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -691,8 +750,20 @@
       <c r="L5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0.53</v>
+      </c>
+      <c r="N5">
+        <v>0.12</v>
+      </c>
+      <c r="O5">
+        <v>0.61</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -729,8 +800,20 @@
       <c r="L6" s="3">
         <v>-9.1999999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1.35</v>
+      </c>
+      <c r="N6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O6">
+        <v>1.23</v>
+      </c>
+      <c r="P6">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -767,8 +850,20 @@
       <c r="L7" s="3">
         <v>-8.1999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1.01</v>
+      </c>
+      <c r="N7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O7">
+        <v>1.33</v>
+      </c>
+      <c r="P7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -805,8 +900,20 @@
       <c r="L8" s="3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0.41</v>
+      </c>
+      <c r="N8">
+        <v>0.16</v>
+      </c>
+      <c r="O8">
+        <v>0.12</v>
+      </c>
+      <c r="P8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +950,20 @@
       <c r="L9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0.02</v>
+      </c>
+      <c r="N9">
+        <v>0.05</v>
+      </c>
+      <c r="O9">
+        <v>0.33</v>
+      </c>
+      <c r="P9">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -881,8 +1000,20 @@
       <c r="L10" s="3">
         <v>-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0.21</v>
+      </c>
+      <c r="N10">
+        <v>0.69</v>
+      </c>
+      <c r="O10">
+        <v>0.21</v>
+      </c>
+      <c r="P10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,8 +1050,20 @@
       <c r="L11" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0.34</v>
+      </c>
+      <c r="N11">
+        <v>0.12</v>
+      </c>
+      <c r="O11">
+        <v>0.09</v>
+      </c>
+      <c r="P11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -957,8 +1100,20 @@
       <c r="L12" s="3">
         <v>-8.8000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0.85</v>
+      </c>
+      <c r="N12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O12">
+        <v>0.66</v>
+      </c>
+      <c r="P12">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -995,8 +1150,20 @@
       <c r="L13" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0.11</v>
+      </c>
+      <c r="N13">
+        <v>0.26</v>
+      </c>
+      <c r="O13">
+        <v>0.17</v>
+      </c>
+      <c r="P13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1033,8 +1200,20 @@
       <c r="L14" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N14">
+        <v>0.39</v>
+      </c>
+      <c r="O14">
+        <v>0.32</v>
+      </c>
+      <c r="P14">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1071,8 +1250,20 @@
       <c r="L15" s="3">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0.69</v>
+      </c>
+      <c r="N15">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.75</v>
+      </c>
+      <c r="P15">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1109,8 +1300,20 @@
       <c r="L16" s="3">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0.16</v>
+      </c>
+      <c r="N16">
+        <v>0.66</v>
+      </c>
+      <c r="O16">
+        <v>0.75</v>
+      </c>
+      <c r="P16">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1147,8 +1350,20 @@
       <c r="L17" s="3">
         <v>-4.0999999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0.78</v>
+      </c>
+      <c r="N17">
+        <v>0.83</v>
+      </c>
+      <c r="O17">
+        <v>0.39</v>
+      </c>
+      <c r="P17">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1185,8 +1400,20 @@
       <c r="L18" s="3">
         <v>-12.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0.53</v>
+      </c>
+      <c r="N18">
+        <v>0.84</v>
+      </c>
+      <c r="O18">
+        <v>0.44</v>
+      </c>
+      <c r="P18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1450,20 @@
       <c r="L19" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0.11</v>
+      </c>
+      <c r="N19">
+        <v>0.22</v>
+      </c>
+      <c r="O19">
+        <v>0.41</v>
+      </c>
+      <c r="P19">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1261,8 +1500,20 @@
       <c r="L20" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0.03</v>
+      </c>
+      <c r="N20">
+        <v>0.03</v>
+      </c>
+      <c r="O20">
+        <v>0.43</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1299,8 +1550,20 @@
       <c r="L21" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>0.27</v>
+      </c>
+      <c r="N21">
+        <v>0.31</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1337,8 +1600,20 @@
       <c r="L22" s="3">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0.25</v>
+      </c>
+      <c r="N22">
+        <v>0.65</v>
+      </c>
+      <c r="O22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P22">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1374,6 +1649,18 @@
       </c>
       <c r="L23" s="3">
         <v>-0.7</v>
+      </c>
+      <c r="M23">
+        <v>0.18</v>
+      </c>
+      <c r="N23">
+        <v>0.7</v>
+      </c>
+      <c r="O23">
+        <v>0.26</v>
+      </c>
+      <c r="P23">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>

--- a/thoipapy/setting/hydrophobicity_scales.xlsx
+++ b/thoipapy/setting/hydrophobicity_scales.xlsx
@@ -1,237 +1,231 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_modules\thoipapy\thoipapy\setting\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="120" windowWidth="16635" windowHeight="10545"/>
+    <workbookView xWindow="2550" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
+    <t>Scale taken from the Chimera docs. https://www.cgl.ucsf.edu/chimera/docs/UsersGuide/midas/hydrophob.html</t>
+  </si>
+  <si>
+    <t>Kyte J, Doolittle RF. J Mol Biol. 1982 May 5;157(1):105-32.</t>
+  </si>
+  <si>
+    <t>Wimley WC, White SH. Nat Struct Biol. 1996 Oct;3(10):842-8.</t>
+  </si>
+  <si>
+    <t>Hessa T, Kim H, Bihlmaier K, Lundin C, Boekel J, Andersson H, Nilsson I, White SH, von Heijne G. Nature. 2005 Jan 27;433(7024):377-81</t>
+  </si>
+  <si>
+    <t>Elazar, A. A., Weinstein, J., Biran, I., Fridman, Y., Bibi, E., &amp; Fleishman, S. J. (2016). Mutational scanning reveals the determinants of protein insertion and association energetics in the plasma membrane. Journal of Chemical Information and Modeling, 53(9), 1689–1699. http://doi.org/10.1017/CBO9781107415324.004</t>
+  </si>
+  <si>
+    <t>Pilpel Y, Ben-Tal N, &amp; Lancet D (1999) KPROT: A knowledge-based scale for the propensity of residue orientation in transmembrane segments. Application to membrane protein structure prediction11Edited by G. von Heijne. J. Mol. Biol. 294(4):921-935.</t>
+  </si>
+  <si>
+    <t>3aa</t>
+  </si>
+  <si>
+    <t>1aa</t>
+  </si>
+  <si>
+    <t>KyteDoolittle</t>
+  </si>
+  <si>
+    <t>Wimley</t>
+  </si>
+  <si>
+    <t>Hessa</t>
+  </si>
+  <si>
+    <t>Elazar</t>
+  </si>
+  <si>
+    <t>Hopp-Woods</t>
+  </si>
+  <si>
+    <t>Cornette</t>
+  </si>
+  <si>
+    <t>Eisenberg</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Janin</t>
+  </si>
+  <si>
+    <t>Engelman(GES)</t>
+  </si>
+  <si>
+    <t>kPROT_Extracellular</t>
+  </si>
+  <si>
+    <t>kPROT_Central</t>
+  </si>
+  <si>
+    <t>kPROT_Intracellular</t>
+  </si>
+  <si>
+    <t>kPROT_Both termini</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>His</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>Ile</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Lys</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Asn</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Gln</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>Val</t>
   </si>
   <si>
-    <t>Leu</t>
-  </si>
-  <si>
-    <t>Phe</t>
-  </si>
-  <si>
-    <t>Cys</t>
-  </si>
-  <si>
-    <t>Met</t>
-  </si>
-  <si>
-    <t>Ala</t>
-  </si>
-  <si>
-    <t>Gly</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>Ser</t>
+    <t>V</t>
   </si>
   <si>
     <t>Trp</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>Tyr</t>
   </si>
   <si>
-    <t>Pro</t>
-  </si>
-  <si>
-    <t>His</t>
-  </si>
-  <si>
-    <t>Glu</t>
-  </si>
-  <si>
-    <t>Gln</t>
-  </si>
-  <si>
-    <t>Asp</t>
-  </si>
-  <si>
-    <t>Asn</t>
-  </si>
-  <si>
-    <t>Lys</t>
-  </si>
-  <si>
-    <t>Arg</t>
-  </si>
-  <si>
-    <t>Scale taken from the Chimera docs. https://www.cgl.ucsf.edu/chimera/docs/UsersGuide/midas/hydrophob.html</t>
-  </si>
-  <si>
-    <t>Kyte J, Doolittle RF. J Mol Biol. 1982 May 5;157(1):105-32.</t>
-  </si>
-  <si>
-    <t>Wimley WC, White SH. Nat Struct Biol. 1996 Oct;3(10):842-8.</t>
-  </si>
-  <si>
-    <t>Hessa T, Kim H, Bihlmaier K, Lundin C, Boekel J, Andersson H, Nilsson I, White SH, von Heijne G. Nature. 2005 Jan 27;433(7024):377-81</t>
-  </si>
-  <si>
-    <t>KyteDoolittle</t>
-  </si>
-  <si>
-    <t>Wimley</t>
-  </si>
-  <si>
-    <t>Hessa</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>3aa</t>
-  </si>
-  <si>
-    <t>1aa</t>
-  </si>
-  <si>
-    <t>Elazar</t>
-  </si>
-  <si>
-    <t>Elazar, A. A., Weinstein, J., Biran, I., Fridman, Y., Bibi, E., &amp; Fleishman, S. J. (2016). Mutational scanning reveals the determinants of protein insertion and association energetics in the plasma membrane. Journal of Chemical Information and Modeling, 53(9), 1689–1699. http://doi.org/10.1017/CBO9781107415324.004</t>
-  </si>
-  <si>
-    <t>Hopp-Woods</t>
-  </si>
-  <si>
-    <t>Cornette</t>
-  </si>
-  <si>
-    <t>Eisenberg</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>Janin</t>
-  </si>
-  <si>
-    <t>Engelman(GES)</t>
-  </si>
-  <si>
-    <t>Pilpel Y, Ben-Tal N, &amp; Lancet D (1999) KPROT: A knowledge-based scale for the propensity of residue orientation in transmembrane segments. Application to membrane protein structure prediction11Edited by G. von Heijne. J. Mol. Biol. 294(4):921-935.</t>
-  </si>
-  <si>
-    <t>kPROT_Extracellular</t>
-  </si>
-  <si>
-    <t>kPROT_Central</t>
-  </si>
-  <si>
-    <t>kPROT_Intracellular</t>
-  </si>
-  <si>
-    <t>kPROT_Both termini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Courier New"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,17 +248,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,44 +279,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -363,9 +349,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -404,166 +390,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -571,133 +533,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1.8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>-0.17</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>0.11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>-0.5</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>0.2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>0.62</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>0.74</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>0.3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>1.6</v>
       </c>
       <c r="M4">
@@ -714,40 +671,40 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1">
+        <v>25</v>
+      </c>
+      <c r="C5">
         <v>2.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0.24</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>-0.13</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>-0.12</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>0.91</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>0.9</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
@@ -764,40 +721,40 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1">
+        <v>27</v>
+      </c>
+      <c r="C6">
         <v>-3.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>-1.23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>3.49</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>1.54</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>-3.1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>-0.9</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>0.62</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>-0.6</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>-9.1999999999999993</v>
       </c>
       <c r="M6">
@@ -814,40 +771,40 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
+      <c r="A7" t="s">
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>-3.5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>-2.02</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>2.68</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>1.83</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>-1.8</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>-0.74</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>0.62</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>-0.7</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7">
         <v>-8.1999999999999993</v>
       </c>
       <c r="M7">
@@ -864,40 +821,40 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>2.8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>-0.32</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>-1.63</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>-2.5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>1.19</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>0.88</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>0.5</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>3.7</v>
       </c>
       <c r="M8">
@@ -914,40 +871,40 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1">
+        <v>33</v>
+      </c>
+      <c r="C9">
         <v>-0.4</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>-0.01</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>0.74</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>1.58</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>0.48</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>0.72</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>0.3</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
@@ -964,40 +921,40 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10" t="s">
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1">
+        <v>35</v>
+      </c>
+      <c r="C10">
         <v>-3.2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>-0.96</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>2.06</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>1.85</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>-0.5</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>0.5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>-0.4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>0.78</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>-0.1</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>-3</v>
       </c>
       <c r="M10">
@@ -1014,40 +971,40 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
+      <c r="A11" t="s">
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1">
+        <v>37</v>
+      </c>
+      <c r="C11">
         <v>4.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0.31</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>-0.6</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>-1.57</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>-1.8</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>4.8</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>1.38</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>0.88</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
         <v>0.7</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11">
         <v>3.1</v>
       </c>
       <c r="M11">
@@ -1064,40 +1021,40 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
+      <c r="A12" t="s">
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1">
+        <v>39</v>
+      </c>
+      <c r="C12">
         <v>-3.9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>-0.99</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>2.71</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>1.51</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>-3.1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>-1.5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>0.52</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>-1.8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>-8.8000000000000007</v>
       </c>
       <c r="M12">
@@ -1114,40 +1071,40 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
+      <c r="A13" t="s">
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1">
+        <v>41</v>
+      </c>
+      <c r="C13">
         <v>3.8</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>-1.92</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>-1.8</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>5.7</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>1.06</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>0.85</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>0.5</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13">
         <v>2.8</v>
       </c>
       <c r="M13">
@@ -1164,40 +1121,40 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
+      <c r="A14" t="s">
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1">
+        <v>43</v>
+      </c>
+      <c r="C14">
         <v>1.9</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0.23</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>-0.1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>-0.8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>-1.3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>4.2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>0.64</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>0.85</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>0.4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
@@ -1214,40 +1171,40 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
+      <c r="A15" t="s">
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1">
+        <v>45</v>
+      </c>
+      <c r="C15">
         <v>-3.5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>-0.42</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>1.28</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>0.2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>-0.5</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>-0.78</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>0.63</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15">
         <v>-0.5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15">
         <v>-4.8</v>
       </c>
       <c r="M15">
@@ -1264,40 +1221,40 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
+      <c r="A16" t="s">
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1">
+        <v>47</v>
+      </c>
+      <c r="C16">
         <v>-1.6</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>-0.45</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>2.23</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>1.87</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>0.12</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>0.64</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>-0.3</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <v>-0.2</v>
       </c>
       <c r="M16">
@@ -1314,40 +1271,40 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1">
+        <v>49</v>
+      </c>
+      <c r="C17">
         <v>-3.5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>2.36</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>0.97</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>0.2</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <v>-2.8</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <v>-0.85</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <v>0.62</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17">
         <v>-0.7</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17">
         <v>-4.0999999999999996</v>
       </c>
       <c r="M17">
@@ -1364,40 +1321,40 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
+      <c r="A18" t="s">
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1">
+        <v>51</v>
+      </c>
+      <c r="C18">
         <v>-4.5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>-0.81</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>2.58</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>0.79</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>1.4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18">
         <v>-2.5299999999999998</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>0.64</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>-1.4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <v>-12.3</v>
       </c>
       <c r="M18">
@@ -1414,40 +1371,40 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
+      <c r="A19" t="s">
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1">
+        <v>53</v>
+      </c>
+      <c r="C19">
         <v>-0.8</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>-0.13</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>0.84</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>0.09</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>0.3</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>-0.5</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>-0.18</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <v>0.66</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <v>-0.1</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19">
         <v>0.6</v>
       </c>
       <c r="M19">
@@ -1464,40 +1421,40 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
+      <c r="A20" t="s">
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1">
+        <v>55</v>
+      </c>
+      <c r="C20">
         <v>-0.7</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>0.52</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>0.83</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>-0.4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
         <v>-1.9</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20">
         <v>-0.05</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <v>0.7</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20">
         <v>-0.2</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20">
         <v>1.2</v>
       </c>
       <c r="M20">
@@ -1514,40 +1471,40 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
+      <c r="A21" t="s">
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1">
+        <v>57</v>
+      </c>
+      <c r="C21">
         <v>4.2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>-0.31</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>-0.6</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>-1.5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21">
         <v>4.7</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21">
         <v>1.08</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21">
         <v>0.86</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21">
         <v>0.6</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21">
         <v>2.6</v>
       </c>
       <c r="M21">
@@ -1564,40 +1521,40 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
+      <c r="A22" t="s">
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1">
+        <v>59</v>
+      </c>
+      <c r="C22">
         <v>-0.9</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>1.85</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>0.3</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>-0.35</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>-3.4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22">
         <v>0.81</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22">
         <v>0.85</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22">
         <v>0.3</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22">
         <v>1.9</v>
       </c>
       <c r="M22">
@@ -1614,40 +1571,40 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
+      <c r="A23" t="s">
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1">
+        <v>61</v>
+      </c>
+      <c r="C23">
         <v>-1.3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0.94</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>0.68</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>0.84</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
         <v>3.2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23">
         <v>0.26</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23">
         <v>0.76</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23">
         <v>-0.4</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23">
         <v>-0.7</v>
       </c>
       <c r="M23">
@@ -1664,34 +1621,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:E23">
-    <sortCondition ref="B4:B23"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>